--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Thrombectomy Complication ValueSet</t>
+    <t>Thrombectomy Complications ValueSet</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the specific complications of thrombectomy to record.</t>
+    <t xml:space="preserve"> ValueSet of SNOMED CT concepts representing complications of thrombectomy as clinical conditions.
+**Primary use-case**
+- Bind `Procedure.complication` (or the referenced Condition.code) to a SNOMED-based set for interoperability.
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +113,15 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t>http://tecnomod-um.org/CodeSystem/thrombectomy-complication-cs</t>
   </si>
 </sst>
 </file>
@@ -421,4 +431,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-thrombectomy-complication-vs.xlsx
+++ b/ValueSet-thrombectomy-complication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
